--- a/website/npm&yarn.xlsx
+++ b/website/npm&yarn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9227" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="18288" windowHeight="9227"/>
   </bookViews>
   <sheets>
     <sheet name="安装node" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,20 @@
     <t>https://nodejs.org/</t>
   </si>
   <si>
-    <t>Node.js 中文网（推荐）</t>
+    <r>
+      <t xml:space="preserve">Node.js 中文网（推荐）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有优质中文网</t>
+    </r>
   </si>
   <si>
     <t>https://nodejs.cn/</t>
@@ -759,7 +772,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,6 +955,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1440,9 +1460,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,6 +1470,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1784,24 +1804,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1809,7 +1829,7 @@
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
@@ -1845,7 +1865,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1970,16 +1990,16 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1987,7 +2007,7 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1995,7 +2015,7 @@
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2003,7 +2023,7 @@
       <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2077,10 +2097,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2088,10 +2108,10 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2099,7 +2119,7 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
@@ -2110,7 +2130,7 @@
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
@@ -2202,7 +2222,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>71</v>
       </c>
@@ -2635,7 +2655,7 @@
   <sheetPr/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
